--- a/tables/DE/DE_rand_1_bin_F_09_Cr_09_pop_50/DE_table2_F1_dim10.xlsx
+++ b/tables/DE/DE_rand_1_bin_F_09_Cr_09_pop_50/DE_table2_F1_dim10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>518453552.9011644</v>
       </c>
       <c r="AZ2" t="n">
-        <v>201032297.2942634</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>350249489.1305601</v>
+        <v>353233832.9672861</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>361239002.1474172</v>
@@ -1011,15 +1002,12 @@
         <v>212994623.7319979</v>
       </c>
       <c r="AZ3" t="n">
-        <v>188803787.2186471</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>242471777.1154813</v>
+        <v>243545136.913418</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>20</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>20322538.64938887</v>
@@ -1172,15 +1160,12 @@
         <v>74752487.58247887</v>
       </c>
       <c r="AZ4" t="n">
-        <v>79968624.2581245</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>46688434.92438062</v>
+        <v>46022831.13770574</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>200</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>3268390.27393112</v>
@@ -1333,15 +1318,12 @@
         <v>2325990.87905619</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2265105.63113392</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>3075478.30922451</v>
+        <v>3091685.76278633</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>400</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>638294.9798029599</v>
@@ -1494,15 +1476,12 @@
         <v>539058.70246882</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2265105.63113392</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>1170500.01483953</v>
+        <v>1148607.90251364</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>599</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>492228.0439176</v>
@@ -1655,15 +1634,12 @@
         <v>278403.46727043</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1938172.24700247</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>724354.63647168</v>
+        <v>700078.28426107</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>799</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>487281.49400072</v>
@@ -1816,15 +1792,12 @@
         <v>266312.35525831</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1232694.66046083</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>491180.88021289</v>
+        <v>476350.60460794</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>999</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>382663.13149977</v>
@@ -1977,15 +1950,12 @@
         <v>241428.87021917</v>
       </c>
       <c r="AZ9" t="n">
-        <v>647525.42465262</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>334660.11838388</v>
+        <v>328402.8122585</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1199</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>226335.44479626</v>
@@ -2138,15 +2108,12 @@
         <v>237424.99752863</v>
       </c>
       <c r="AZ10" t="n">
-        <v>331294.55469106</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>232257.26948406</v>
+        <v>230276.52377992</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>1399</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>221064.28588783</v>
@@ -2299,15 +2266,12 @@
         <v>177902.33044063</v>
       </c>
       <c r="AZ11" t="n">
-        <v>322424.65310387</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>187845.82555021</v>
+        <v>185154.24899913</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>1598</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>132044.56673495</v>
@@ -2460,15 +2424,12 @@
         <v>69858.28984497</v>
       </c>
       <c r="AZ12" t="n">
-        <v>251623.08776586</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>146889.0029669</v>
+        <v>144794.32127092</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>1798</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>119604.92509652</v>
@@ -2621,15 +2582,12 @@
         <v>69858.28984497</v>
       </c>
       <c r="AZ13" t="n">
-        <v>192892.71029774</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>122363.06491643</v>
+        <v>120952.4720088</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>1998</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>97986.72485858999</v>
@@ -2782,10 +2740,7 @@
         <v>69858.28984497</v>
       </c>
       <c r="AZ14" t="n">
-        <v>48617.43609941</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>91617.78905414</v>
+        <v>92477.79611323</v>
       </c>
     </row>
   </sheetData>
